--- a/Gross Sale Revenues - HSG.xlsx
+++ b/Gross Sale Revenues - HSG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\RProjects\Time_Series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\RProjects\Viet_Nam_Steel_stock_analysis-Time-Series-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0315A6F-5C74-4265-A5B6-1B6B20D57F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C79497-953D-43FC-85BE-EE9C7B158605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{8084141E-CCA0-4FD7-8FB9-0447BC4F8A45}"/>
+    <workbookView xWindow="18555" yWindow="0" windowWidth="18570" windowHeight="21600" xr2:uid="{8084141E-CCA0-4FD7-8FB9-0447BC4F8A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Gross_Sale_Revenues</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2099Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2099Q2</t>
+  </si>
+  <si>
+    <t>2099Q3</t>
+  </si>
+  <si>
+    <t>2099Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +226,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,9 +271,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0BD396-42A0-4D17-8AAE-40F9502C7C41}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,119 +609,179 @@
       <c r="A2">
         <v>540323</v>
       </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>939939</v>
       </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>579078</v>
       </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>662602</v>
       </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>566686</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>779794</v>
       </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>837567</v>
       </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>837567</v>
       </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1093142</v>
       </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1379089</v>
       </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1415196</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1603930</v>
       </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1858744</v>
       </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1858744</v>
       </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2393637</v>
       </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2323289</v>
       </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2531174</v>
       </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2540443</v>
       </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2753538</v>
       </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>2285833</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -525,71 +789,107 @@
       <c r="A22">
         <v>2699783</v>
       </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3265557</v>
       </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3205150</v>
       </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3300844</v>
       </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3343584</v>
       </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4327838</v>
       </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4032808</v>
       </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4419678</v>
       </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4276935</v>
       </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4835354</v>
       </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>3937928</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>3918906</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -597,59 +897,89 @@
       <c r="A34">
         <v>4438783</v>
       </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4610629</v>
       </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5038181</v>
       </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5793112</v>
       </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6271069</v>
       </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7280384</v>
       </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6992419</v>
       </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7929841</v>
       </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7728558</v>
       </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>10350829</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -657,47 +987,71 @@
       <c r="A44">
         <v>8561116</v>
       </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7557609</v>
       </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6922420</v>
       </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7243650</v>
       </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6357625</v>
       </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6597689</v>
       </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6597689</v>
       </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>5786706</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -705,48 +1059,75 @@
       <c r="A52">
         <v>6954874</v>
       </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8437961</v>
       </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9167199</v>
       </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13035928</v>
       </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15922447</v>
       </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>17005852</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12697837</v>
       </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12233957</v>
       </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>8152489</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,27 +1332,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:B123">
     <sortCondition descending="1" ref="A65:A123"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4F9EF4947020449AB430069B66746EC" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc5d317ba5aa50d0cf09bf825460b671">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="928ed85d-a3aa-46c6-9c31-6d389f29c180" xmlns:ns4="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00a85edf74d044f143033e0957d708d4" ns3:_="" ns4:_="">
     <xsd:import namespace="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
@@ -1156,32 +1523,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA63C5FD-9670-4AD2-9D4A-BC460DDF9C96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43007D68-129E-454F-8AA7-DAEF6A523575}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBCE569-6794-432D-A911-7EDA479ECEA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1198,4 +1555,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43007D68-129E-454F-8AA7-DAEF6A523575}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA63C5FD-9670-4AD2-9D4A-BC460DDF9C96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>